--- a/JRR Marathon - King ِAbdulAziz Road (Responses).xlsx
+++ b/JRR Marathon - King ِAbdulAziz Road (Responses).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cba1c346281a1e0/Documents/Programming/Python/batch message whatsapp/myScript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f9ca995eff9215/Devlp/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_F7AAC73466F24D0B660BE44A0F184E3001452C22" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{530687BC-17FF-4792-A42F-40300A1ED483}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F7AAC73466F24D0B660BE44A0F184E3001452C22" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D6F4DF03-FC90-46BF-B4CD-CB6A4320B140}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{AA3FD156-601A-4DB7-B4D3-56404B3A47FB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{D3A7897C-2AAA-43C0-B8C9-4D81DFD0B85E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{5E806F99-A6E0-4290-BC28-9EEC937C0EF2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{D3A7897C-2AAA-43C0-B8C9-4D81DFD0B85E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{AA3FD156-601A-4DB7-B4D3-56404B3A47FB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -42,6 +42,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Responder updated this value.</t>
         </r>
@@ -708,24 +709,24 @@
     <t>Eng Message</t>
   </si>
   <si>
+    <t>Dear Participant,%0a
+Thank you for your registration with” JRR” 🔹Friday 22nd January 2021,  🔹your ”BIB# “ in the {run_distance} is {bib_ number}
+You can GET your BIB and pay the fees on Wed or Thursday evening from 8:30 up to 10:30, or before one hour of race start.
+Complete marathon Start @4:00, Half marathon @6:00, Family race @7:00</t>
+  </si>
+  <si>
     <t>عزيزي المتسابق%0a
 عزيزتي المتسابقة%0a
 شكرا على تسجيلكم معنا في سباق JRR السنوي %0a
             الجمعة ٢٢ يناير ٢٠٢١%0a
- 🔹رقمكم في {arabic_run_distance} هو {بيب}%0a
+🔹رقمكم في {arabic_run_distance} هو {بيب}%0a
 🔹استلام الارقام والدفع في موقع السباق %0a
 🔹متواجدون يومي الاربعاء و الخميس ٢٠ و ٢١ يناير ٢٠٢١%0a
 🔹من الساعة "8:30" وحتى الساعة "10:30" مساء%0a
 🔺أو الحضور قبل موعد الانطلاق بساعة%0a
 🔴انطلاق "الماراثون" الساعة ٤:٠٠ ص%0a
- 🔴انطلاق "نصف الماراثون " الساعة ٦:٠٠ ص%0a
+🔴انطلاق "نصف الماراثون " الساعة ٦:٠٠ ص%0a
 🔴انطلاق "السباق العائلي" الساعة ٧:٠٠ ص%0a</t>
-  </si>
-  <si>
-    <t>Dear Participant,%0a
-Thank you for your registration with” JRR” 🔹Friday 22nd January 2021,  🔹your ”BIB# “ in the {run_distance} is {bib_ number}
-You can GET your BIB and pay the fees on Wed or Thursday evening from 8:30 up to 10:30, or before one hour of race start.
-Complete marathon Start @4:00, Half marathon @6:00, Family race @7:00</t>
   </si>
 </sst>
 </file>
@@ -745,10 +746,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1020,24 +1023,25 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.453125" customWidth="1"/>
+    <col min="12" max="14" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44209.587110983797</v>
       </c>
@@ -1101,13 +1105,13 @@
         <v>301</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44209.906256006943</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44210.726337962958</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44210.727335763891</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44212.502852592588</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44212.589154606481</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44212.610147650463</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44212.88373666667</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44213.010560034723</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44213.830519131945</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44213.876657418979</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44213.945053472227</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44213.951635694444</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44214.086247500003</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44214.09332216435</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44214.262337986111</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44214.514929733792</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44214.572497210647</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44214.903605300926</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44214.979541909721</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44215.387983194443</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44215.455970682873</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44215.691372268513</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44207.811559270835</v>
       </c>
@@ -1772,7 +1776,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44208.412224432876</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44208.443709421292</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44209.409162361109</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44209.409969224536</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44211.710331018519</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44211.937513240744</v>
       </c>
@@ -1942,7 +1946,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44211.940843472221</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44211.95882792824</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44212.407218564811</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44212.478005150464</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44212.605189733797</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44212.672613449075</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44212.844495428246</v>
       </c>
@@ -2145,7 +2149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44212.849375219907</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44212.906629548612</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44212.912741145832</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44213.019570231481</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44213.105039120375</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44213.114494837966</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44213.390112453708</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44213.492374189816</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44213.55095517361</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44214.042500949072</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44214.079775590275</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44214.207488935186</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44214.402964745372</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44214.563635335653</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44214.601126921298</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44214.709046759264</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44214.784053229167</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44214.819937754626</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44214.871159062503</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44214.900194108792</v>
       </c>
@@ -2725,7 +2729,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44215.304384224539</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44215.334267002312</v>
       </c>
@@ -2783,7 +2787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44215.509856435187</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>44215.540735555551</v>
       </c>
@@ -2841,7 +2845,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44215.685723368057</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44207.924713159722</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44209.369141550924</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44209.401026979162</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44209.537414675928</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44209.654904687501</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44209.813041597226</v>
       </c>
@@ -3042,7 +3046,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44210.775873356484</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44212.135033715276</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44212.510169907408</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44212.561374976853</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44213.453061087959</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44213.475178541667</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44213.810887245374</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44213.936833506945</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44214.015507905089</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44214.020890173611</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44214.563579571761</v>
       </c>
@@ -3366,17 +3370,17 @@
     <sortCondition ref="G1:G81"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{AA3FD156-601A-4DB7-B4D3-56404B3A47FB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D3A7897C-2AAA-43C0-B8C9-4D81DFD0B85E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="G1:G180" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="F1:F180" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5E806F99-A6E0-4290-BC28-9EEC937C0EF2}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="F1:F180" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{D3A7897C-2AAA-43C0-B8C9-4D81DFD0B85E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AA3FD156-601A-4DB7-B4D3-56404B3A47FB}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="F1:F180" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="G1:G180" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
